--- a/Projeto1.xlsx
+++ b/Projeto1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DADOS\DOC\FATEC SR\3SEM\BANCO_DADOS\Projeto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DADOS\FATEC SR\3SEM\BANCO_DADOS\Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825427BD-3300-4527-B06A-F746BDEB8568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6569A5B-75D7-4980-B20A-FE574BEB6B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="765" windowWidth="19965" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="60" windowWidth="14475" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BancoDados" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+  <si>
+    <t>EXERCICIO 2 - Modelagem Banco de Dados</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>not_null</t>
+  </si>
+  <si>
+    <t>primary_key</t>
+  </si>
+  <si>
+    <t>auto_increment</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>char(2)</t>
+  </si>
+  <si>
+    <t>dt_inclusao</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>tptipoveiculos</t>
+  </si>
+  <si>
+    <t>tbtipomontadora</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nomeTipo</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>nomeMontadora</t>
+  </si>
+  <si>
+    <t>tpproprietario</t>
+  </si>
+  <si>
+    <t>nomeProprietario</t>
+  </si>
+  <si>
+    <t>foneProprietario</t>
+  </si>
+  <si>
+    <t>emailProprietario</t>
+  </si>
+  <si>
+    <t>ufProprietario</t>
+  </si>
+  <si>
+    <t>cnpj_cpf</t>
+  </si>
+  <si>
+    <t>dt_alteracao</t>
+  </si>
+  <si>
+    <t>tpveiculos</t>
+  </si>
+  <si>
+    <t>placa</t>
+  </si>
+  <si>
+    <t>char(10)</t>
+  </si>
+  <si>
+    <t>veiculo</t>
+  </si>
+  <si>
+    <t>codProprietario</t>
+  </si>
+  <si>
+    <t>codMontadora</t>
+  </si>
+  <si>
+    <t>codTipoVeiculo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,16 +129,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -55,12 +173,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,14 +477,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A28:C28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>